--- a/biology/Zoologie/Dynamine_(genre)/Dynamine_(genre).xlsx
+++ b/biology/Zoologie/Dynamine_(genre)/Dynamine_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le genre Dynamine regroupe des insectes lépidoptères de la famille des Nymphalidae et de la sous-famille des Biblidinae, tribu des Eubagini.
@@ -512,15 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Dynamine a été décrit par Jacob Hübner en 1819[1].
-L'espèce type est Papilio mylitta (Cramer), aujourd'hui Dynamine postverta.
-Synonymie
-Sironia (Hübner, 1823)[2]
-Eubagis (Boisduval, 1832) [3]
-Arisba (Doubleday, 1847)[4]
-Seronia (Kirby, 1871) [5]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Dynamine a été décrit par Jacob Hübner en 1819.
+L'espèce type est Papilio mylitta (Cramer), aujourd'hui Dynamine postverta.</t>
         </is>
       </c>
     </row>
@@ -545,20 +554,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sironia (Hübner, 1823)
+Eubagis (Boisduval, 1832) 
+Arisba (Doubleday, 1847)
+Seronia (Kirby, 1871) </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dynamine_(genre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dynamine_(genre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces
 Dynamine aerata (Butler, 1877)
 Dynamine agacles (Dalman, 1823)
 Dynamine agatha (Oberthür, 1916)
 Dynamine amplias (Hewitson, 1859)
 Dynamine anubis (Hewitson, 1859)
-Dynamine arene Hübner, [1823]
+Dynamine arene Hübner, 
 Dynamine artemisia (Fabricius, 1793)
-Dynamine ate (Godman &amp; Salvin, [1883])
+Dynamine ate (Godman &amp; Salvin, )
 Dynamine athemon (Linnaeus, 1758)
 Dynamine chryseis (Bates, 1865)
 Dynamine coenus (Fabricius, 1793)
@@ -568,7 +618,7 @@
 Dynamine gisella (Hewitson, 1857)
 Dynamine haenschi Hall, 1917
 Dynamine hecuba (Schaus, 1913)
-Dynamine ines (Godart, [1824])
+Dynamine ines (Godart, )
 Dynamine intermedia Talbot, 1932
 Dynamine laugieri (Oberthür, 1916)
 Dynamine meridionalis Röber, 1915
@@ -577,17 +627,17 @@
 Dynamine neoris (Hewitson, 1859)
 Dynamine onias (Hewitson, 1857)
 Dynamine paulina (Bates, 1865)
-Dynamine pebana Staudinger, [1885]
+Dynamine pebana Staudinger, 
 Dynamine perpetua (Bates, 1865)
 Dynamine persis (Hewitson, 1859)
-Dynamine postverta (Cramer, [1780]) Espèce type pour le genre.
+Dynamine postverta (Cramer, ) Espèce type pour le genre.
 Dynamine racidula (Hewitson, 1852)
 Dynamine sara (Bates, 1865)
 Dynamine serina (Fabricius, 1775)
 Dynamine setabis (Doubleday, 1849)
 Dynamine sosthenes (Hewitson, 1869)
 Dynamine theseus (C. &amp; R. Felder, 1861)
-Dynamine tithia (Hübner, [1823])
+Dynamine tithia (Hübner, )
 Dynamine vicaria (Bates, 1865)
 Dynamine zenobia (Bates, 1865)
 			Dynamine artemisia
@@ -599,31 +649,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Dynamine_(genre)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dynamine_(genre)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est rencontré en Amérique centrale et en Amérique du Sud.
 </t>
